--- a/data/pca/factorExposure/factorExposure_2014-12-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-12-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +720,54 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.01304077993634052</v>
+        <v>0.0116523999264076</v>
       </c>
       <c r="C2">
-        <v>0.03611515118318758</v>
+        <v>-0.05415727998636734</v>
       </c>
       <c r="D2">
-        <v>-0.1357511720896702</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06273970567667481</v>
+      </c>
+      <c r="E2">
+        <v>0.1020205678406009</v>
+      </c>
+      <c r="F2">
+        <v>-0.1459657777315504</v>
+      </c>
+      <c r="G2">
+        <v>0.05240974611881622</v>
+      </c>
+      <c r="H2">
+        <v>0.04796477093320572</v>
+      </c>
+      <c r="I2">
+        <v>-0.04699070672112184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +778,54 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.04527763569442549</v>
+        <v>0.02241602453817549</v>
       </c>
       <c r="C4">
-        <v>0.1218087988435567</v>
+        <v>-0.1453814221197248</v>
       </c>
       <c r="D4">
-        <v>-0.09741305406294883</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02320802451124378</v>
+      </c>
+      <c r="E4">
+        <v>0.07991220855927529</v>
+      </c>
+      <c r="F4">
+        <v>-0.1033409699546511</v>
+      </c>
+      <c r="G4">
+        <v>-0.0596977429061386</v>
+      </c>
+      <c r="H4">
+        <v>-0.02155922933510944</v>
+      </c>
+      <c r="I4">
+        <v>-0.07521341948759921</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.0218639212993146</v>
+        <v>0.03103881022630584</v>
       </c>
       <c r="C6">
-        <v>0.0477643674957595</v>
+        <v>-0.05929508107402794</v>
       </c>
       <c r="D6">
-        <v>-0.08347947680180412</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.03598073946140749</v>
+      </c>
+      <c r="E6">
+        <v>0.08949870910430435</v>
+      </c>
+      <c r="F6">
+        <v>-0.05164829735637052</v>
+      </c>
+      <c r="G6">
+        <v>0.04069288330016293</v>
+      </c>
+      <c r="H6">
+        <v>-0.04533709633048491</v>
+      </c>
+      <c r="I6">
+        <v>-0.02091951326179807</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.008315696888660266</v>
+        <v>0.006875918311518939</v>
       </c>
       <c r="C7">
-        <v>0.03664400861190957</v>
+        <v>-0.05385099279172932</v>
       </c>
       <c r="D7">
-        <v>-0.06665070273915347</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03588397518634463</v>
+      </c>
+      <c r="E7">
+        <v>0.07148734635881782</v>
+      </c>
+      <c r="F7">
+        <v>-0.003890125395136639</v>
+      </c>
+      <c r="G7">
+        <v>-0.02144645142426257</v>
+      </c>
+      <c r="H7">
+        <v>-0.0512170863023197</v>
+      </c>
+      <c r="I7">
+        <v>-0.08038570612434309</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.003080829890614336</v>
+        <v>-0.006527762205441672</v>
       </c>
       <c r="C8">
-        <v>0.05327407551010568</v>
+        <v>-0.06092843370352517</v>
       </c>
       <c r="D8">
-        <v>-0.08274105913146611</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.01256449660737363</v>
+      </c>
+      <c r="E8">
+        <v>0.06799493421319651</v>
+      </c>
+      <c r="F8">
+        <v>-0.08062797507745494</v>
+      </c>
+      <c r="G8">
+        <v>-0.02974004237957277</v>
+      </c>
+      <c r="H8">
+        <v>0.04896712260370249</v>
+      </c>
+      <c r="I8">
+        <v>-0.03082887886965352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.0273322354262775</v>
+        <v>0.01324279049422543</v>
       </c>
       <c r="C9">
-        <v>0.09921890324969801</v>
+        <v>-0.1149887175500826</v>
       </c>
       <c r="D9">
-        <v>-0.08396052301341443</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.02303956165918725</v>
+      </c>
+      <c r="E9">
+        <v>0.06592083702046797</v>
+      </c>
+      <c r="F9">
+        <v>-0.06454018003301334</v>
+      </c>
+      <c r="G9">
+        <v>-0.00932253105315054</v>
+      </c>
+      <c r="H9">
+        <v>-0.04038887607105405</v>
+      </c>
+      <c r="I9">
+        <v>-0.08193946383756304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.2217788106895382</v>
+        <v>0.2418809919348222</v>
       </c>
       <c r="C10">
-        <v>-0.1134832568853119</v>
+        <v>0.08592922279765099</v>
       </c>
       <c r="D10">
-        <v>0.04623324510122013</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01691864636401177</v>
+      </c>
+      <c r="E10">
+        <v>-0.02465463198853217</v>
+      </c>
+      <c r="F10">
+        <v>-0.01759226693071266</v>
+      </c>
+      <c r="G10">
+        <v>-0.006701271994662452</v>
+      </c>
+      <c r="H10">
+        <v>-0.03115811067071466</v>
+      </c>
+      <c r="I10">
+        <v>-0.02331689252409882</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.01008549320194051</v>
+        <v>0.0126299530875809</v>
       </c>
       <c r="C11">
-        <v>0.04266227254803859</v>
+        <v>-0.06687281810622071</v>
       </c>
       <c r="D11">
-        <v>-0.04668866741611449</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.0129603606214937</v>
+      </c>
+      <c r="E11">
+        <v>0.05425450599615721</v>
+      </c>
+      <c r="F11">
+        <v>-0.001735521187658826</v>
+      </c>
+      <c r="G11">
+        <v>-0.01431105792462274</v>
+      </c>
+      <c r="H11">
+        <v>-0.03187979664099893</v>
+      </c>
+      <c r="I11">
+        <v>-0.03765272821262006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.01528911625975597</v>
+        <v>0.0151148168867253</v>
       </c>
       <c r="C12">
-        <v>0.04544446665816678</v>
+        <v>-0.05668645693651918</v>
       </c>
       <c r="D12">
-        <v>-0.0483239705722013</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.01792682998490549</v>
+      </c>
+      <c r="E12">
+        <v>0.04152383783231187</v>
+      </c>
+      <c r="F12">
+        <v>0.008687132506629412</v>
+      </c>
+      <c r="G12">
+        <v>0.01464095390203941</v>
+      </c>
+      <c r="H12">
+        <v>-0.02772321240720088</v>
+      </c>
+      <c r="I12">
+        <v>-0.0423369537600374</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.01607891351019043</v>
+        <v>0.00659035404400994</v>
       </c>
       <c r="C13">
-        <v>0.05448272634438635</v>
+        <v>-0.0909665089443189</v>
       </c>
       <c r="D13">
-        <v>-0.1284261442628978</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.07943684656468414</v>
+      </c>
+      <c r="E13">
+        <v>0.1216826978388532</v>
+      </c>
+      <c r="F13">
+        <v>-0.05367951064022086</v>
+      </c>
+      <c r="G13">
+        <v>0.09770769187144358</v>
+      </c>
+      <c r="H13">
+        <v>-0.05859626984373987</v>
+      </c>
+      <c r="I13">
+        <v>-0.09468596701460362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.004086397270248147</v>
+        <v>0.00705656521866779</v>
       </c>
       <c r="C14">
-        <v>0.02050835711876189</v>
+        <v>-0.04844634242601891</v>
       </c>
       <c r="D14">
-        <v>-0.05811667014359422</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01901450831502719</v>
+      </c>
+      <c r="E14">
+        <v>0.1029914672199425</v>
+      </c>
+      <c r="F14">
+        <v>-0.01577189676148564</v>
+      </c>
+      <c r="G14">
+        <v>0.03270653003693106</v>
+      </c>
+      <c r="H14">
+        <v>-0.07593458371990824</v>
+      </c>
+      <c r="I14">
+        <v>-0.1428354157514989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.002335012452997969</v>
+        <v>-0.00364782060802252</v>
       </c>
       <c r="C15">
-        <v>0.02825132072241207</v>
+        <v>-0.04927995045208938</v>
       </c>
       <c r="D15">
-        <v>-0.07927483936596461</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.03195776242158536</v>
+      </c>
+      <c r="E15">
+        <v>0.07682171066963608</v>
+      </c>
+      <c r="F15">
+        <v>-0.0133654175296667</v>
+      </c>
+      <c r="G15">
+        <v>-0.01012413691676476</v>
+      </c>
+      <c r="H15">
+        <v>-0.01177861632460062</v>
+      </c>
+      <c r="I15">
+        <v>-0.05854429099227131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.009630408278634406</v>
+        <v>0.01136198267846806</v>
       </c>
       <c r="C16">
-        <v>0.0396583520009641</v>
+        <v>-0.05714988006648468</v>
       </c>
       <c r="D16">
-        <v>-0.03861710629875155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.01580295640257781</v>
+      </c>
+      <c r="E16">
+        <v>0.03998713437421155</v>
+      </c>
+      <c r="F16">
+        <v>0.002747354721458974</v>
+      </c>
+      <c r="G16">
+        <v>0.001353213269416538</v>
+      </c>
+      <c r="H16">
+        <v>-0.0357322274345697</v>
+      </c>
+      <c r="I16">
+        <v>-0.03629855755199261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1213,257 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.008434412676085995</v>
+        <v>0.003582208810307562</v>
       </c>
       <c r="C19">
-        <v>0.009945663086852612</v>
+        <v>-0.008728155539534641</v>
       </c>
       <c r="D19">
-        <v>-0.029100380242843</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.006509110471687597</v>
+      </c>
+      <c r="E19">
+        <v>0.01193920215083108</v>
+      </c>
+      <c r="F19">
+        <v>0.005851425260535546</v>
+      </c>
+      <c r="G19">
+        <v>0.003462368098584154</v>
+      </c>
+      <c r="H19">
+        <v>0.01471198938825986</v>
+      </c>
+      <c r="I19">
+        <v>-0.02410919125440554</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.001471802665567383</v>
+        <v>0.003383573091225133</v>
       </c>
       <c r="C20">
-        <v>0.04046280412007894</v>
+        <v>-0.06416607549183082</v>
       </c>
       <c r="D20">
-        <v>-0.06444517858867506</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03420061274357641</v>
+      </c>
+      <c r="E20">
+        <v>0.06737901583048447</v>
+      </c>
+      <c r="F20">
+        <v>-0.00577756617888384</v>
+      </c>
+      <c r="G20">
+        <v>-0.0187508363439592</v>
+      </c>
+      <c r="H20">
+        <v>-0.06913746636936165</v>
+      </c>
+      <c r="I20">
+        <v>-0.0617044827655802</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.01223890574781016</v>
+        <v>0.008798295840657703</v>
       </c>
       <c r="C21">
-        <v>0.05460719585938017</v>
+        <v>-0.06592909903838902</v>
       </c>
       <c r="D21">
-        <v>-0.09484077846023534</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03621648748113894</v>
+      </c>
+      <c r="E21">
+        <v>0.08346330914075623</v>
+      </c>
+      <c r="F21">
+        <v>-0.07451669737991272</v>
+      </c>
+      <c r="G21">
+        <v>0.09373330828986097</v>
+      </c>
+      <c r="H21">
+        <v>-0.03428632884817338</v>
+      </c>
+      <c r="I21">
+        <v>-0.1830367408569223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.0003650960943060032</v>
+        <v>-0.01084785628949031</v>
       </c>
       <c r="C22">
-        <v>0.06075241961359437</v>
+        <v>-0.1029042324912904</v>
       </c>
       <c r="D22">
-        <v>-0.2054757988503499</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1450880886448458</v>
+      </c>
+      <c r="E22">
+        <v>0.190258652526979</v>
+      </c>
+      <c r="F22">
+        <v>-0.2987277677473433</v>
+      </c>
+      <c r="G22">
+        <v>-0.1244565711497455</v>
+      </c>
+      <c r="H22">
+        <v>0.2470847018922327</v>
+      </c>
+      <c r="I22">
+        <v>0.4102694817136574</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.0004558680992181212</v>
+        <v>-0.007532449301009208</v>
       </c>
       <c r="C23">
-        <v>0.06213168483824089</v>
+        <v>-0.1059341057119001</v>
       </c>
       <c r="D23">
-        <v>-0.2051372669174958</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1475651255127935</v>
+      </c>
+      <c r="E23">
+        <v>0.1875272106285267</v>
+      </c>
+      <c r="F23">
+        <v>-0.2933749549711852</v>
+      </c>
+      <c r="G23">
+        <v>-0.1181899475728231</v>
+      </c>
+      <c r="H23">
+        <v>0.2358039900828155</v>
+      </c>
+      <c r="I23">
+        <v>0.38397584080027</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.01255144742094317</v>
+        <v>0.01395680327645848</v>
       </c>
       <c r="C24">
-        <v>0.06268984155337833</v>
+        <v>-0.07315859608535796</v>
       </c>
       <c r="D24">
-        <v>-0.05352781640299977</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.009364379099636354</v>
+      </c>
+      <c r="E24">
+        <v>0.05310502762640412</v>
+      </c>
+      <c r="F24">
+        <v>0.003438349960622499</v>
+      </c>
+      <c r="G24">
+        <v>-0.006525383857090606</v>
+      </c>
+      <c r="H24">
+        <v>-0.02953530108059222</v>
+      </c>
+      <c r="I24">
+        <v>-0.05829897772899822</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.01686029513800758</v>
+        <v>0.01854769654001097</v>
       </c>
       <c r="C25">
-        <v>0.05423874164887568</v>
+        <v>-0.06726554050789846</v>
       </c>
       <c r="D25">
-        <v>-0.04288916288796356</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01196707413091732</v>
+      </c>
+      <c r="E25">
+        <v>0.04022325887035189</v>
+      </c>
+      <c r="F25">
+        <v>-0.001313537459368416</v>
+      </c>
+      <c r="G25">
+        <v>-0.01035597188387305</v>
+      </c>
+      <c r="H25">
+        <v>-0.03318789172605664</v>
+      </c>
+      <c r="I25">
+        <v>-0.03425186323980742</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.005624509179641109</v>
+        <v>0.0174333097390396</v>
       </c>
       <c r="C26">
-        <v>0.0304282008545101</v>
+        <v>-0.04978891144942157</v>
       </c>
       <c r="D26">
-        <v>-0.05392716811396349</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.006510611862597348</v>
+      </c>
+      <c r="E26">
+        <v>0.08304045642706424</v>
+      </c>
+      <c r="F26">
+        <v>-0.0303275960386087</v>
+      </c>
+      <c r="G26">
+        <v>0.003855126294443329</v>
+      </c>
+      <c r="H26">
+        <v>-0.04009576120880296</v>
+      </c>
+      <c r="I26">
+        <v>-0.1235690135287597</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.2983148420580153</v>
+        <v>0.3097833792048315</v>
       </c>
       <c r="C28">
-        <v>-0.1412109834079256</v>
+        <v>0.1088440946288317</v>
       </c>
       <c r="D28">
-        <v>0.04819958564852575</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.008053350881187363</v>
+      </c>
+      <c r="E28">
+        <v>-0.04328615537011514</v>
+      </c>
+      <c r="F28">
+        <v>-0.07371802314902685</v>
+      </c>
+      <c r="G28">
+        <v>-0.03753969893411743</v>
+      </c>
+      <c r="H28">
+        <v>0.01706631098248854</v>
+      </c>
+      <c r="I28">
+        <v>-0.06129566365374825</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.004726425338779354</v>
+        <v>0.006122684205497609</v>
       </c>
       <c r="C29">
-        <v>0.02777651436372055</v>
+        <v>-0.05690658555402588</v>
       </c>
       <c r="D29">
-        <v>-0.06923697942767829</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02934083785061779</v>
+      </c>
+      <c r="E29">
+        <v>0.111189141786834</v>
+      </c>
+      <c r="F29">
+        <v>-0.02039241646237037</v>
+      </c>
+      <c r="G29">
+        <v>0.04794595244434866</v>
+      </c>
+      <c r="H29">
+        <v>-0.1084928687729741</v>
+      </c>
+      <c r="I29">
+        <v>-0.1803683867008697</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.02799202059487267</v>
+        <v>0.02177888239829608</v>
       </c>
       <c r="C30">
-        <v>0.09766897943091188</v>
+        <v>-0.122094301410393</v>
       </c>
       <c r="D30">
-        <v>-0.1403733272024778</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.04321055937041512</v>
+      </c>
+      <c r="E30">
+        <v>0.120932020906381</v>
+      </c>
+      <c r="F30">
+        <v>-0.0500398201937998</v>
+      </c>
+      <c r="G30">
+        <v>-0.02098668357868186</v>
+      </c>
+      <c r="H30">
+        <v>-0.00320988218881905</v>
+      </c>
+      <c r="I30">
+        <v>-0.02574701036473878</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.01442091348168763</v>
+        <v>0.01108225703030068</v>
       </c>
       <c r="C31">
-        <v>0.08728827950536362</v>
+        <v>-0.09667833564222401</v>
       </c>
       <c r="D31">
-        <v>-0.03042858900142687</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.005011148657950613</v>
+      </c>
+      <c r="E31">
+        <v>0.02760680701291178</v>
+      </c>
+      <c r="F31">
+        <v>-0.003576969401254182</v>
+      </c>
+      <c r="G31">
+        <v>0.001430645660027274</v>
+      </c>
+      <c r="H31">
+        <v>0.01912009497279751</v>
+      </c>
+      <c r="I31">
+        <v>-0.05882454683330617</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.02029262101455939</v>
+        <v>0.01808926504338652</v>
       </c>
       <c r="C32">
-        <v>0.05365413650509047</v>
+        <v>-0.06174082205360829</v>
       </c>
       <c r="D32">
-        <v>-0.1020238817519769</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03134626701131256</v>
+      </c>
+      <c r="E32">
+        <v>0.06678034755560275</v>
+      </c>
+      <c r="F32">
+        <v>-0.1167944734470899</v>
+      </c>
+      <c r="G32">
+        <v>0.03755337200902847</v>
+      </c>
+      <c r="H32">
+        <v>-0.02686997752599934</v>
+      </c>
+      <c r="I32">
+        <v>-0.08171026574382467</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.007401139148533762</v>
+        <v>0.009980348976491591</v>
       </c>
       <c r="C33">
-        <v>0.06355012148814931</v>
+        <v>-0.09147239082392114</v>
       </c>
       <c r="D33">
-        <v>-0.08474205961616671</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.03743737768545387</v>
+      </c>
+      <c r="E33">
+        <v>0.08542191760980886</v>
+      </c>
+      <c r="F33">
+        <v>-0.01125141596485531</v>
+      </c>
+      <c r="G33">
+        <v>0.0007706813822758975</v>
+      </c>
+      <c r="H33">
+        <v>-0.03163578473462308</v>
+      </c>
+      <c r="I33">
+        <v>-0.06040627128044761</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.01138909452306222</v>
+        <v>0.01403441126186426</v>
       </c>
       <c r="C34">
-        <v>0.0534156909372434</v>
+        <v>-0.05729591578194954</v>
       </c>
       <c r="D34">
-        <v>-0.05682744655765224</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.008474006414829895</v>
+      </c>
+      <c r="E34">
+        <v>0.04275128719727246</v>
+      </c>
+      <c r="F34">
+        <v>0.02340765587975335</v>
+      </c>
+      <c r="G34">
+        <v>0.007508826072175167</v>
+      </c>
+      <c r="H34">
+        <v>-0.008397216454607597</v>
+      </c>
+      <c r="I34">
+        <v>-0.02509991060592873</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>-0.001221541016285626</v>
+        <v>0.005591150309116341</v>
       </c>
       <c r="C35">
-        <v>0.002552805920778625</v>
+        <v>-0.02444483794777958</v>
       </c>
       <c r="D35">
-        <v>-0.009316775737186322</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01265201548962516</v>
+      </c>
+      <c r="E35">
+        <v>0.0398160438013147</v>
+      </c>
+      <c r="F35">
+        <v>-0.01566960867213111</v>
+      </c>
+      <c r="G35">
+        <v>0.008944263116916889</v>
+      </c>
+      <c r="H35">
+        <v>-0.06272873969736685</v>
+      </c>
+      <c r="I35">
+        <v>-0.1007128770222228</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.006527355669549771</v>
+        <v>0.01041959695559165</v>
       </c>
       <c r="C36">
-        <v>0.03033621097623174</v>
+        <v>-0.04230665389074363</v>
       </c>
       <c r="D36">
-        <v>-0.04338795290736625</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.002051673626814514</v>
+      </c>
+      <c r="E36">
+        <v>0.06587684252297231</v>
+      </c>
+      <c r="F36">
+        <v>-0.0314221677813934</v>
+      </c>
+      <c r="G36">
+        <v>0.002295173386730069</v>
+      </c>
+      <c r="H36">
+        <v>-0.03332205810266564</v>
+      </c>
+      <c r="I36">
+        <v>-0.07075478174038831</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.006574632465220854</v>
+        <v>0.007100210876594028</v>
       </c>
       <c r="C38">
-        <v>0.01666892284921907</v>
+        <v>-0.04412340047227016</v>
       </c>
       <c r="D38">
-        <v>-0.06269303830463611</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02736023048040953</v>
+      </c>
+      <c r="E38">
+        <v>0.07785338721319324</v>
+      </c>
+      <c r="F38">
+        <v>-0.01192303436021682</v>
+      </c>
+      <c r="G38">
+        <v>-0.04752525417442348</v>
+      </c>
+      <c r="H38">
+        <v>0.006249055216084176</v>
+      </c>
+      <c r="I38">
+        <v>-0.07527105660814876</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.01468211002770393</v>
+        <v>0.01184050624080796</v>
       </c>
       <c r="C39">
-        <v>0.07628003944896947</v>
+        <v>-0.1058628663907607</v>
       </c>
       <c r="D39">
-        <v>-0.1096596941273543</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.02363552298012728</v>
+      </c>
+      <c r="E39">
+        <v>0.09759244629754998</v>
+      </c>
+      <c r="F39">
+        <v>0.009101854689031338</v>
+      </c>
+      <c r="G39">
+        <v>0.008585453926117797</v>
+      </c>
+      <c r="H39">
+        <v>-0.03476959470950608</v>
+      </c>
+      <c r="I39">
+        <v>-0.05213613369004522</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.005677779142460769</v>
+        <v>0.0115031669493195</v>
       </c>
       <c r="C40">
-        <v>0.01566135834740118</v>
+        <v>-0.04681276900652917</v>
       </c>
       <c r="D40">
-        <v>-0.09113143008580141</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.05436539835809555</v>
+      </c>
+      <c r="E40">
+        <v>0.1222763887352722</v>
+      </c>
+      <c r="F40">
+        <v>0.003598502367243018</v>
+      </c>
+      <c r="G40">
+        <v>0.02240796046911285</v>
+      </c>
+      <c r="H40">
+        <v>-0.04503349024379236</v>
+      </c>
+      <c r="I40">
+        <v>-0.007660408159524668</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.009691430682263327</v>
+        <v>0.01775703446450845</v>
       </c>
       <c r="C41">
-        <v>0.02453167824448932</v>
+        <v>-0.04425257314073772</v>
       </c>
       <c r="D41">
-        <v>-0.01868055484813833</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01027522993880394</v>
+      </c>
+      <c r="E41">
+        <v>0.02036055643852946</v>
+      </c>
+      <c r="F41">
+        <v>0.0149809293038491</v>
+      </c>
+      <c r="G41">
+        <v>-0.005929409732136194</v>
+      </c>
+      <c r="H41">
+        <v>-0.003934080163966752</v>
+      </c>
+      <c r="I41">
+        <v>-0.04022093304097533</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.00236539844158825</v>
+        <v>0.009124372168800432</v>
       </c>
       <c r="C43">
-        <v>0.02022463610447532</v>
+        <v>-0.03682441779894395</v>
       </c>
       <c r="D43">
-        <v>-0.03548179836127765</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.007231490419442054</v>
+      </c>
+      <c r="E43">
+        <v>0.04430374887847038</v>
+      </c>
+      <c r="F43">
+        <v>0.00591536628700454</v>
+      </c>
+      <c r="G43">
+        <v>-0.01418907068918626</v>
+      </c>
+      <c r="H43">
+        <v>-0.01770714992392592</v>
+      </c>
+      <c r="I43">
+        <v>-0.05360139107485992</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.02099906618424335</v>
+        <v>0.007990019325706614</v>
       </c>
       <c r="C44">
-        <v>0.05507047446598502</v>
+        <v>-0.07611207442780134</v>
       </c>
       <c r="D44">
-        <v>-0.08418810747406749</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.01998858812473784</v>
+      </c>
+      <c r="E44">
+        <v>0.1007829377468377</v>
+      </c>
+      <c r="F44">
+        <v>-0.04002938873125187</v>
+      </c>
+      <c r="G44">
+        <v>-0.009533219236665115</v>
+      </c>
+      <c r="H44">
+        <v>0.005557994758204021</v>
+      </c>
+      <c r="I44">
+        <v>-0.03895268483781934</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1996,199 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.001214924844765879</v>
+        <v>0.0001381830132406006</v>
       </c>
       <c r="C46">
-        <v>0.03534039744120252</v>
+        <v>-0.05173811184708675</v>
       </c>
       <c r="D46">
-        <v>-0.06830089971029764</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01459398763101615</v>
+      </c>
+      <c r="E46">
+        <v>0.08413404846892306</v>
+      </c>
+      <c r="F46">
+        <v>-0.01359462511465629</v>
+      </c>
+      <c r="G46">
+        <v>0.003991291058520344</v>
+      </c>
+      <c r="H46">
+        <v>-0.06743681790463794</v>
+      </c>
+      <c r="I46">
+        <v>-0.1121635540202166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.04387832314230722</v>
+        <v>0.02941045854775833</v>
       </c>
       <c r="C47">
-        <v>0.1136027637578729</v>
+        <v>-0.1120611789968826</v>
       </c>
       <c r="D47">
-        <v>-0.03486013756171606</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01141780861135534</v>
+      </c>
+      <c r="E47">
+        <v>0.01386622697194827</v>
+      </c>
+      <c r="F47">
+        <v>0.001585697478140916</v>
+      </c>
+      <c r="G47">
+        <v>-0.01124301404590634</v>
+      </c>
+      <c r="H47">
+        <v>-0.002090166214384267</v>
+      </c>
+      <c r="I47">
+        <v>-0.08585009755610037</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.009469100975825031</v>
+        <v>0.01504091896032628</v>
       </c>
       <c r="C48">
-        <v>0.03452714262150736</v>
+        <v>-0.04881048143978991</v>
       </c>
       <c r="D48">
-        <v>-0.04245811542930101</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.007966671748976587</v>
+      </c>
+      <c r="E48">
+        <v>0.07409653834997808</v>
+      </c>
+      <c r="F48">
+        <v>-0.04002232554237826</v>
+      </c>
+      <c r="G48">
+        <v>-0.003072673761669615</v>
+      </c>
+      <c r="H48">
+        <v>-0.04495929250806314</v>
+      </c>
+      <c r="I48">
+        <v>-0.1191144452086232</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.003678865178838283</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.006789343987763295</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.007349524399561763</v>
+      </c>
+      <c r="E49">
+        <v>0.007044436021126912</v>
+      </c>
+      <c r="F49">
+        <v>0.01329855539668934</v>
+      </c>
+      <c r="G49">
+        <v>0.007319601708603823</v>
+      </c>
+      <c r="H49">
+        <v>-0.0158240619646754</v>
+      </c>
+      <c r="I49">
+        <v>0.007479678374558128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.01432206956814347</v>
+        <v>0.01259111796881431</v>
       </c>
       <c r="C50">
-        <v>0.05220223631435708</v>
+        <v>-0.07061303075563297</v>
       </c>
       <c r="D50">
-        <v>-0.04264407009932932</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0145998284247704</v>
+      </c>
+      <c r="E50">
+        <v>0.03421887539865487</v>
+      </c>
+      <c r="F50">
+        <v>-0.0129786599480022</v>
+      </c>
+      <c r="G50">
+        <v>-0.01045030633477383</v>
+      </c>
+      <c r="H50">
+        <v>0.001916052698284999</v>
+      </c>
+      <c r="I50">
+        <v>-0.05763253060199049</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.003029638363319706</v>
+        <v>-0.004595873236143612</v>
       </c>
       <c r="C51">
-        <v>0.01818852897601462</v>
+        <v>-0.02869123305967082</v>
       </c>
       <c r="D51">
-        <v>-0.06751413493008286</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01669257242005641</v>
+      </c>
+      <c r="E51">
+        <v>0.0578857900978459</v>
+      </c>
+      <c r="F51">
+        <v>-0.04638326962841502</v>
+      </c>
+      <c r="G51">
+        <v>0.01064633095759497</v>
+      </c>
+      <c r="H51">
+        <v>-0.01937764401350488</v>
+      </c>
+      <c r="I51">
+        <v>-0.1074641513062195</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.09041156891318772</v>
+        <v>0.0654819192202193</v>
       </c>
       <c r="C53">
-        <v>0.1565388365072662</v>
+        <v>-0.1631140732210521</v>
       </c>
       <c r="D53">
-        <v>0.003332862820201172</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.04853567603041763</v>
+      </c>
+      <c r="E53">
+        <v>-0.04538974674228979</v>
+      </c>
+      <c r="F53">
+        <v>0.02819951350129102</v>
+      </c>
+      <c r="G53">
+        <v>-0.01227603403574029</v>
+      </c>
+      <c r="H53">
+        <v>0.04412113845433598</v>
+      </c>
+      <c r="I53">
+        <v>-0.0210591144960033</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.006478928264800028</v>
+        <v>0.01355766448399472</v>
       </c>
       <c r="C54">
-        <v>0.02419539026800479</v>
+        <v>-0.04831989673350141</v>
       </c>
       <c r="D54">
-        <v>-0.07710382059713236</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.04434552202304062</v>
+      </c>
+      <c r="E54">
+        <v>0.05767445438159641</v>
+      </c>
+      <c r="F54">
+        <v>-0.01214973439719648</v>
+      </c>
+      <c r="G54">
+        <v>-0.008498753864481899</v>
+      </c>
+      <c r="H54">
+        <v>-0.01987272289291515</v>
+      </c>
+      <c r="I54">
+        <v>-0.09152211194173808</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.06098143938273633</v>
+        <v>0.03973061798781676</v>
       </c>
       <c r="C55">
-        <v>0.1111356534960534</v>
+        <v>-0.1133322707750705</v>
       </c>
       <c r="D55">
-        <v>0.002925186769670691</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.05001278931145058</v>
+      </c>
+      <c r="E55">
+        <v>-0.02425918125735866</v>
+      </c>
+      <c r="F55">
+        <v>0.03410723441670351</v>
+      </c>
+      <c r="G55">
+        <v>-0.0008627385633431583</v>
+      </c>
+      <c r="H55">
+        <v>0.0430152393953526</v>
+      </c>
+      <c r="I55">
+        <v>-0.02775840666600077</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.0944111965640972</v>
+        <v>0.06113985171459874</v>
       </c>
       <c r="C56">
-        <v>0.1657138822931656</v>
+        <v>-0.1816088617488314</v>
       </c>
       <c r="D56">
-        <v>-0.026274979539375</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05014738339043081</v>
+      </c>
+      <c r="E56">
+        <v>-0.03671574045272817</v>
+      </c>
+      <c r="F56">
+        <v>0.06285183636051636</v>
+      </c>
+      <c r="G56">
+        <v>-0.01081355039767091</v>
+      </c>
+      <c r="H56">
+        <v>0.1200023278243123</v>
+      </c>
+      <c r="I56">
+        <v>-0.02378028923853215</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,178 +2344,373 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.02085556578504461</v>
+        <v>0.01144106272902404</v>
       </c>
       <c r="C58">
-        <v>0.07744985693334289</v>
+        <v>-0.1210397354155482</v>
       </c>
       <c r="D58">
-        <v>-0.2253677805536162</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.1241662030901462</v>
+      </c>
+      <c r="E58">
+        <v>0.1722042573209422</v>
+      </c>
+      <c r="F58">
+        <v>-0.2612462018749371</v>
+      </c>
+      <c r="G58">
+        <v>-0.06397794597660035</v>
+      </c>
+      <c r="H58">
+        <v>0.1233251381764336</v>
+      </c>
+      <c r="I58">
+        <v>0.03471118585982947</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.238378676662852</v>
+        <v>0.2684665149342577</v>
       </c>
       <c r="C59">
-        <v>-0.08456078147769532</v>
+        <v>0.0560409189741982</v>
       </c>
       <c r="D59">
-        <v>-0.04703029256932766</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02029453508192506</v>
+      </c>
+      <c r="E59">
+        <v>0.02830424644650633</v>
+      </c>
+      <c r="F59">
+        <v>-0.03563538252565142</v>
+      </c>
+      <c r="G59">
+        <v>0.01916687729335914</v>
+      </c>
+      <c r="H59">
+        <v>-0.004717968045052496</v>
+      </c>
+      <c r="I59">
+        <v>0.03253206627627837</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1498535915721738</v>
+        <v>0.1539386541292536</v>
       </c>
       <c r="C60">
-        <v>0.1173064248596245</v>
+        <v>-0.1517325988884769</v>
       </c>
       <c r="D60">
-        <v>-0.0854022043657289</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.02379145351981496</v>
+      </c>
+      <c r="E60">
+        <v>0.08445063728727106</v>
+      </c>
+      <c r="F60">
+        <v>0.2249666169195447</v>
+      </c>
+      <c r="G60">
+        <v>0.1044429539598506</v>
+      </c>
+      <c r="H60">
+        <v>-0.1575285185343133</v>
+      </c>
+      <c r="I60">
+        <v>0.2980317351726301</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.02120084255893735</v>
+        <v>0.01879129659907115</v>
       </c>
       <c r="C61">
-        <v>0.06332967135432151</v>
+        <v>-0.09080466303879096</v>
       </c>
       <c r="D61">
-        <v>-0.0726521504007529</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.01256001654453242</v>
+      </c>
+      <c r="E61">
+        <v>0.07565852040585896</v>
+      </c>
+      <c r="F61">
+        <v>0.02329834086463554</v>
+      </c>
+      <c r="G61">
+        <v>-0.003766610993067955</v>
+      </c>
+      <c r="H61">
+        <v>-0.02681657990352309</v>
+      </c>
+      <c r="I61">
+        <v>-0.06320021236803351</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.0004443987106006147</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.001159698490629941</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.0008106498780333104</v>
+      </c>
+      <c r="E62">
+        <v>-0.0006754761268135481</v>
+      </c>
+      <c r="F62">
+        <v>-0.003112125746401604</v>
+      </c>
+      <c r="G62">
+        <v>8.088859598953754e-05</v>
+      </c>
+      <c r="H62">
+        <v>0.0002456729028989029</v>
+      </c>
+      <c r="I62">
+        <v>-0.003807848826861982</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.002539469052633041</v>
+        <v>0.01745863979968155</v>
       </c>
       <c r="C63">
-        <v>0.04792787494449461</v>
+        <v>-0.06404037395413653</v>
       </c>
       <c r="D63">
-        <v>-0.06149544029682327</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.001672676482523776</v>
+      </c>
+      <c r="E63">
+        <v>0.07391462909779885</v>
+      </c>
+      <c r="F63">
+        <v>-0.0007034360591662511</v>
+      </c>
+      <c r="G63">
+        <v>0.004802772865074398</v>
+      </c>
+      <c r="H63">
+        <v>-0.03064824518567877</v>
+      </c>
+      <c r="I63">
+        <v>-0.07929715675395749</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.02889119907990418</v>
+        <v>0.0175997397274619</v>
       </c>
       <c r="C64">
-        <v>0.1116254537827221</v>
+        <v>-0.1081696988485495</v>
       </c>
       <c r="D64">
-        <v>-0.02267483740613115</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01169884092113592</v>
+      </c>
+      <c r="E64">
+        <v>0.02765719258388611</v>
+      </c>
+      <c r="F64">
+        <v>-0.01589060611284392</v>
+      </c>
+      <c r="G64">
+        <v>-0.01663988220799813</v>
+      </c>
+      <c r="H64">
+        <v>-0.06071832630108845</v>
+      </c>
+      <c r="I64">
+        <v>0.01713251803673751</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.01985202352829987</v>
+        <v>0.02394285492098331</v>
       </c>
       <c r="C65">
-        <v>0.03827973576649882</v>
+        <v>-0.06589186464922006</v>
       </c>
       <c r="D65">
-        <v>-0.0887123215959664</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.05448611934384064</v>
+      </c>
+      <c r="E65">
+        <v>0.0982886307756729</v>
+      </c>
+      <c r="F65">
+        <v>0.00381622275657403</v>
+      </c>
+      <c r="G65">
+        <v>-0.003278402430773246</v>
+      </c>
+      <c r="H65">
+        <v>-0.08558422442640957</v>
+      </c>
+      <c r="I65">
+        <v>0.02888379239989879</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.02061462917521046</v>
+        <v>0.01348188785353146</v>
       </c>
       <c r="C66">
-        <v>0.09563217834630802</v>
+        <v>-0.1319959354338583</v>
       </c>
       <c r="D66">
-        <v>-0.1449254955383469</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.05513216110447668</v>
+      </c>
+      <c r="E66">
+        <v>0.1077852156297393</v>
+      </c>
+      <c r="F66">
+        <v>-0.003402893017195708</v>
+      </c>
+      <c r="G66">
+        <v>-0.001272942582827155</v>
+      </c>
+      <c r="H66">
+        <v>-0.008926971898903334</v>
+      </c>
+      <c r="I66">
+        <v>-0.05274915474546869</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.01835245066275178</v>
+        <v>0.01815181332502703</v>
       </c>
       <c r="C67">
-        <v>0.01874397985228358</v>
+        <v>-0.04281876730752966</v>
       </c>
       <c r="D67">
-        <v>-0.02965666167156469</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.00412128503653054</v>
+      </c>
+      <c r="E67">
+        <v>0.06179645520733934</v>
+      </c>
+      <c r="F67">
+        <v>0.0291796287949491</v>
+      </c>
+      <c r="G67">
+        <v>-0.03996308150725341</v>
+      </c>
+      <c r="H67">
+        <v>-0.006370037262187844</v>
+      </c>
+      <c r="I67">
+        <v>-0.05570988416529283</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.2342541922654257</v>
+        <v>0.2776128828682048</v>
       </c>
       <c r="C68">
-        <v>-0.09639040561002225</v>
+        <v>0.06763811693421504</v>
       </c>
       <c r="D68">
-        <v>-0.01631202032790965</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.03764284510176719</v>
+      </c>
+      <c r="E68">
+        <v>0.01559161866635821</v>
+      </c>
+      <c r="F68">
+        <v>-0.05674896426064788</v>
+      </c>
+      <c r="G68">
+        <v>-0.01172295013545661</v>
+      </c>
+      <c r="H68">
+        <v>0.0335960008427377</v>
+      </c>
+      <c r="I68">
+        <v>0.02880079834475079</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.0405104612464143</v>
+        <v>0.0175850458605357</v>
       </c>
       <c r="C69">
-        <v>0.116797474393598</v>
+        <v>-0.1006777023900328</v>
       </c>
       <c r="D69">
-        <v>-0.04537161905873081</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.02619826130205028</v>
+      </c>
+      <c r="E69">
+        <v>0.02260050183580501</v>
+      </c>
+      <c r="F69">
+        <v>0.01950895550961499</v>
+      </c>
+      <c r="G69">
+        <v>-0.007815175251883803</v>
+      </c>
+      <c r="H69">
+        <v>0.01035872013041436</v>
+      </c>
+      <c r="I69">
+        <v>-0.04940763744846242</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2721,750 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.2484549435239115</v>
+        <v>0.2666874570564182</v>
       </c>
       <c r="C71">
-        <v>-0.1163475252181028</v>
+        <v>0.08352268633978138</v>
       </c>
       <c r="D71">
-        <v>-0.01721348847844325</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01899422304345495</v>
+      </c>
+      <c r="E71">
+        <v>0.01969663126678236</v>
+      </c>
+      <c r="F71">
+        <v>-0.02985234536610194</v>
+      </c>
+      <c r="G71">
+        <v>-0.0301005249822269</v>
+      </c>
+      <c r="H71">
+        <v>-0.002493525634036953</v>
+      </c>
+      <c r="I71">
+        <v>-0.06406827646996638</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.08039612010315539</v>
+        <v>0.06462124303110499</v>
       </c>
       <c r="C72">
-        <v>0.1184255282193608</v>
+        <v>-0.1351508050598449</v>
       </c>
       <c r="D72">
-        <v>-0.100249640830017</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.01273999904580276</v>
+      </c>
+      <c r="E72">
+        <v>0.05994079805930357</v>
+      </c>
+      <c r="F72">
+        <v>0.04276458138195608</v>
+      </c>
+      <c r="G72">
+        <v>0.008436028350487424</v>
+      </c>
+      <c r="H72">
+        <v>-0.01431376830240659</v>
+      </c>
+      <c r="I72">
+        <v>0.03333918078601217</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.1149831350725817</v>
+        <v>0.1448941481473166</v>
       </c>
       <c r="C73">
-        <v>0.09754220572916804</v>
+        <v>-0.1587636112848199</v>
       </c>
       <c r="D73">
-        <v>-0.1153366132646457</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.03479809589532235</v>
+      </c>
+      <c r="E73">
+        <v>0.1613534154197984</v>
+      </c>
+      <c r="F73">
+        <v>0.3268440800484833</v>
+      </c>
+      <c r="G73">
+        <v>0.1202302762228901</v>
+      </c>
+      <c r="H73">
+        <v>-0.2887389062270398</v>
+      </c>
+      <c r="I73">
+        <v>0.2828658242539841</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.0738218872739605</v>
+        <v>0.05053323825387702</v>
       </c>
       <c r="C74">
-        <v>0.1310928188395751</v>
+        <v>-0.131792967324328</v>
       </c>
       <c r="D74">
-        <v>0.04599044477225359</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.06235306477082544</v>
+      </c>
+      <c r="E74">
+        <v>-0.04468928362480296</v>
+      </c>
+      <c r="F74">
+        <v>0.01901943238886608</v>
+      </c>
+      <c r="G74">
+        <v>-0.01548280286261929</v>
+      </c>
+      <c r="H74">
+        <v>0.02976252801201943</v>
+      </c>
+      <c r="I74">
+        <v>-0.01782508894609363</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.1727360643936473</v>
+        <v>0.09794473964298218</v>
       </c>
       <c r="C75">
-        <v>0.2272998449838018</v>
+        <v>-0.2346374310449184</v>
       </c>
       <c r="D75">
-        <v>0.02033196236434715</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1018078917094921</v>
+      </c>
+      <c r="E75">
+        <v>-0.1107514172974664</v>
+      </c>
+      <c r="F75">
+        <v>0.1528541158391757</v>
+      </c>
+      <c r="G75">
+        <v>-0.1108648412166599</v>
+      </c>
+      <c r="H75">
+        <v>0.2304111029044667</v>
+      </c>
+      <c r="I75">
+        <v>-0.04620932760994911</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.09533513685669748</v>
+        <v>0.05894073242642069</v>
       </c>
       <c r="C76">
-        <v>0.1598058654296213</v>
+        <v>-0.1698210206107529</v>
       </c>
       <c r="D76">
-        <v>-0.01219960861382835</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.06444456965905589</v>
+      </c>
+      <c r="E76">
+        <v>-0.02775015790339485</v>
+      </c>
+      <c r="F76">
+        <v>0.09593140732487745</v>
+      </c>
+      <c r="G76">
+        <v>-0.008341222865791122</v>
+      </c>
+      <c r="H76">
+        <v>0.08092298165925947</v>
+      </c>
+      <c r="I76">
+        <v>-0.04818375763733946</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.04552273720635593</v>
+        <v>0.03228118471105847</v>
       </c>
       <c r="C77">
-        <v>0.08874904277560514</v>
+        <v>-0.1586861050631889</v>
       </c>
       <c r="D77">
-        <v>-0.2928383095266215</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.8397577904372496</v>
+      </c>
+      <c r="E77">
+        <v>-0.4900555870979855</v>
+      </c>
+      <c r="F77">
+        <v>0.06456515216210967</v>
+      </c>
+      <c r="G77">
+        <v>-0.0275503644475674</v>
+      </c>
+      <c r="H77">
+        <v>-0.06286939716473393</v>
+      </c>
+      <c r="I77">
+        <v>-0.05900358207679818</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.0330105029991529</v>
+        <v>0.028485247004202</v>
       </c>
       <c r="C78">
-        <v>0.08999381534591847</v>
+        <v>-0.1054680282889399</v>
       </c>
       <c r="D78">
-        <v>-0.1316717647009571</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.000781268371565028</v>
+      </c>
+      <c r="E78">
+        <v>0.1037123921272862</v>
+      </c>
+      <c r="F78">
+        <v>-0.05026262513872334</v>
+      </c>
+      <c r="G78">
+        <v>0.02341386881620674</v>
+      </c>
+      <c r="H78">
+        <v>0.06877303132164293</v>
+      </c>
+      <c r="I78">
+        <v>-0.1235024934427411</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.09445954339495891</v>
+        <v>0.05812371734524145</v>
       </c>
       <c r="C79">
-        <v>0.4208460205998624</v>
+        <v>-0.3031531224598156</v>
       </c>
       <c r="D79">
-        <v>0.6219682626781936</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.305895335219138</v>
+      </c>
+      <c r="E79">
+        <v>-0.450196143429514</v>
+      </c>
+      <c r="F79">
+        <v>-0.5413448346988903</v>
+      </c>
+      <c r="G79">
+        <v>0.04361015571044772</v>
+      </c>
+      <c r="H79">
+        <v>-0.466290562954776</v>
+      </c>
+      <c r="I79">
+        <v>0.1472317619802548</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.000253486000772171</v>
+        <v>0.009220647321659824</v>
       </c>
       <c r="C80">
-        <v>0.05550039955245854</v>
+        <v>-0.05578799581615977</v>
       </c>
       <c r="D80">
-        <v>-0.04049191672366811</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.004993551006177574</v>
+      </c>
+      <c r="E80">
+        <v>0.06707105979114443</v>
+      </c>
+      <c r="F80">
+        <v>0.02058551298880471</v>
+      </c>
+      <c r="G80">
+        <v>0.06622388473806066</v>
+      </c>
+      <c r="H80">
+        <v>-0.01752904128774906</v>
+      </c>
+      <c r="I80">
+        <v>0.03327175788888118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.07350921273208687</v>
+        <v>0.03417414863372996</v>
       </c>
       <c r="C81">
-        <v>0.1494203406262504</v>
+        <v>-0.1473559704780815</v>
       </c>
       <c r="D81">
-        <v>0.04590662881458365</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.0620340493909616</v>
+      </c>
+      <c r="E81">
+        <v>-0.06125419173772001</v>
+      </c>
+      <c r="F81">
+        <v>0.01317527350719573</v>
+      </c>
+      <c r="G81">
+        <v>-0.02125930538778081</v>
+      </c>
+      <c r="H81">
+        <v>0.06077345606145407</v>
+      </c>
+      <c r="I81">
+        <v>-0.06840736576630294</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.1380040975539801</v>
+        <v>0.07697751716876548</v>
       </c>
       <c r="C82">
-        <v>0.2132671604568042</v>
+        <v>-0.1966381432746947</v>
       </c>
       <c r="D82">
-        <v>0.019361236269355</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.09482569061736686</v>
+      </c>
+      <c r="E82">
+        <v>-0.07030558249781904</v>
+      </c>
+      <c r="F82">
+        <v>0.08754489873761631</v>
+      </c>
+      <c r="G82">
+        <v>-0.006206354231687298</v>
+      </c>
+      <c r="H82">
+        <v>0.1186583833870475</v>
+      </c>
+      <c r="I82">
+        <v>-0.08262865139932175</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.003402305868468237</v>
+        <v>0.002537546086863898</v>
       </c>
       <c r="C83">
-        <v>0.05901207790964802</v>
+        <v>-0.02245267832960139</v>
       </c>
       <c r="D83">
-        <v>-0.05310647740100791</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04160833303948103</v>
+      </c>
+      <c r="E83">
+        <v>-0.0387873295853569</v>
+      </c>
+      <c r="F83">
+        <v>-0.1113552589473731</v>
+      </c>
+      <c r="G83">
+        <v>0.9163725565517541</v>
+      </c>
+      <c r="H83">
+        <v>0.2501045680223395</v>
+      </c>
+      <c r="I83">
+        <v>0.02421524488615628</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.001364978731134249</v>
+        <v>-0.003936518683340782</v>
       </c>
       <c r="C84">
-        <v>0.01467894461151647</v>
+        <v>-0.0293253007153317</v>
       </c>
       <c r="D84">
-        <v>-0.04085823385722572</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01041835637967386</v>
+      </c>
+      <c r="E84">
+        <v>0.05180103004778583</v>
+      </c>
+      <c r="F84">
+        <v>-0.05967871075073979</v>
+      </c>
+      <c r="G84">
+        <v>-0.05162294671027513</v>
+      </c>
+      <c r="H84">
+        <v>0.038134753726623</v>
+      </c>
+      <c r="I84">
+        <v>-0.07542530090080329</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.08545961201655562</v>
+        <v>0.04894264516022106</v>
       </c>
       <c r="C85">
-        <v>0.1817501655626429</v>
+        <v>-0.1716998234597991</v>
       </c>
       <c r="D85">
-        <v>0.07334050836875788</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1132987498321594</v>
+      </c>
+      <c r="E85">
+        <v>-0.09427444990170682</v>
+      </c>
+      <c r="F85">
+        <v>0.02956760275804219</v>
+      </c>
+      <c r="G85">
+        <v>-0.01542548706549724</v>
+      </c>
+      <c r="H85">
+        <v>0.0734784412170171</v>
+      </c>
+      <c r="I85">
+        <v>-0.02733214871421692</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.02693740154703713</v>
+        <v>0.01728961659299627</v>
       </c>
       <c r="C86">
-        <v>0.03125346601137286</v>
+        <v>-0.06208236482353017</v>
       </c>
       <c r="D86">
-        <v>-0.09222751901356682</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04682359246498283</v>
+      </c>
+      <c r="E86">
+        <v>0.04249958350387047</v>
+      </c>
+      <c r="F86">
+        <v>-0.07978170462870739</v>
+      </c>
+      <c r="G86">
+        <v>-0.03861372254336828</v>
+      </c>
+      <c r="H86">
+        <v>0.02163910209235385</v>
+      </c>
+      <c r="I86">
+        <v>-0.06564686528867074</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.02771528097026999</v>
+        <v>0.01759828496833869</v>
       </c>
       <c r="C87">
-        <v>0.07350026710847497</v>
+        <v>-0.09631915297921927</v>
       </c>
       <c r="D87">
-        <v>-0.141115378195233</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.06915117425510557</v>
+      </c>
+      <c r="E87">
+        <v>0.0998577283582591</v>
+      </c>
+      <c r="F87">
+        <v>-0.07242597588537379</v>
+      </c>
+      <c r="G87">
+        <v>-0.01686873345167767</v>
+      </c>
+      <c r="H87">
+        <v>0.04478556930440167</v>
+      </c>
+      <c r="I87">
+        <v>-0.04534691459061091</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.039058774184813</v>
+        <v>0.03804854281573476</v>
       </c>
       <c r="C88">
-        <v>0.07168281891291742</v>
+        <v>-0.08211742310603606</v>
       </c>
       <c r="D88">
-        <v>-0.0005214843653673745</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.008258305693339449</v>
+      </c>
+      <c r="E88">
+        <v>0.01664143721000573</v>
+      </c>
+      <c r="F88">
+        <v>0.02516482980539463</v>
+      </c>
+      <c r="G88">
+        <v>-0.004789836388404157</v>
+      </c>
+      <c r="H88">
+        <v>-0.01517694104927631</v>
+      </c>
+      <c r="I88">
+        <v>-0.01468838732199907</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.4186895100709525</v>
+        <v>0.407791259674068</v>
       </c>
       <c r="C89">
-        <v>-0.2102780647752585</v>
+        <v>0.1476405843654411</v>
       </c>
       <c r="D89">
-        <v>0.03563525984492994</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.001460084486530139</v>
+      </c>
+      <c r="E89">
+        <v>0.01266002069982584</v>
+      </c>
+      <c r="F89">
+        <v>-0.0833342078309465</v>
+      </c>
+      <c r="G89">
+        <v>0.08300499961146311</v>
+      </c>
+      <c r="H89">
+        <v>0.09847401359368896</v>
+      </c>
+      <c r="I89">
+        <v>-0.07859179111451763</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.2994727331765757</v>
+        <v>0.3180892977268445</v>
       </c>
       <c r="C90">
-        <v>-0.151336333654924</v>
+        <v>0.1000446391714541</v>
       </c>
       <c r="D90">
-        <v>-0.06280088996962339</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.03247523732504839</v>
+      </c>
+      <c r="E90">
+        <v>0.04304543553027924</v>
+      </c>
+      <c r="F90">
+        <v>-0.02031764029382953</v>
+      </c>
+      <c r="G90">
+        <v>-0.01176576011118062</v>
+      </c>
+      <c r="H90">
+        <v>0.02806342186252913</v>
+      </c>
+      <c r="I90">
+        <v>0.005488030635621443</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.1029836727225246</v>
+        <v>0.06811097224863469</v>
       </c>
       <c r="C91">
-        <v>0.2065368670475211</v>
+        <v>-0.1781749567715641</v>
       </c>
       <c r="D91">
-        <v>0.08064261895749962</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.078564017605544</v>
+      </c>
+      <c r="E91">
+        <v>-0.1168541639815674</v>
+      </c>
+      <c r="F91">
+        <v>0.008955330890061668</v>
+      </c>
+      <c r="G91">
+        <v>0.0227785410854946</v>
+      </c>
+      <c r="H91">
+        <v>0.04349033326114379</v>
+      </c>
+      <c r="I91">
+        <v>-0.01483355745843364</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.3162168599906199</v>
+        <v>0.342159584876051</v>
       </c>
       <c r="C92">
-        <v>-0.1719527407697428</v>
+        <v>0.1330707164315315</v>
       </c>
       <c r="D92">
-        <v>0.02329883270153547</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.0333850350946366</v>
+      </c>
+      <c r="E92">
+        <v>-0.01810846804780208</v>
+      </c>
+      <c r="F92">
+        <v>-0.08097692306222147</v>
+      </c>
+      <c r="G92">
+        <v>-0.0957132301980327</v>
+      </c>
+      <c r="H92">
+        <v>-0.04219880759173376</v>
+      </c>
+      <c r="I92">
+        <v>-0.01421648705600617</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.3104459018515585</v>
+        <v>0.3209423929050181</v>
       </c>
       <c r="C93">
-        <v>-0.1642183573084612</v>
+        <v>0.1261144413936423</v>
       </c>
       <c r="D93">
-        <v>0.0472237845263366</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01802330179439179</v>
+      </c>
+      <c r="E93">
+        <v>-0.01923530280307727</v>
+      </c>
+      <c r="F93">
+        <v>-0.04109580076275479</v>
+      </c>
+      <c r="G93">
+        <v>-0.01542036573977706</v>
+      </c>
+      <c r="H93">
+        <v>-0.0101039717547722</v>
+      </c>
+      <c r="I93">
+        <v>-0.03345538707855158</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.1766022932747658</v>
+        <v>0.1143147121122308</v>
       </c>
       <c r="C94">
-        <v>0.259251187611594</v>
+        <v>-0.2555777802106537</v>
       </c>
       <c r="D94">
-        <v>0.07307344216740359</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.1582636514021738</v>
+      </c>
+      <c r="E94">
+        <v>-0.2077260245101871</v>
+      </c>
+      <c r="F94">
+        <v>0.1915589552049097</v>
+      </c>
+      <c r="G94">
+        <v>-0.07685235955785924</v>
+      </c>
+      <c r="H94">
+        <v>0.4363623009325159</v>
+      </c>
+      <c r="I94">
+        <v>0.03175617484830123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.04043397790607207</v>
+        <v>0.03858165989807828</v>
       </c>
       <c r="C95">
-        <v>0.04333964349483884</v>
+        <v>-0.09351575757882777</v>
       </c>
       <c r="D95">
-        <v>-0.06115200804466057</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.04596576670528104</v>
+      </c>
+      <c r="E95">
+        <v>0.07552352596053025</v>
+      </c>
+      <c r="F95">
+        <v>0.1054722109777256</v>
+      </c>
+      <c r="G95">
+        <v>-0.03456997933090385</v>
+      </c>
+      <c r="H95">
+        <v>-0.04533483177427584</v>
+      </c>
+      <c r="I95">
+        <v>-0.08116678611511625</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3475,83 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.003927046201663679</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0009706326356597708</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.01831964750815518</v>
+      </c>
+      <c r="E97">
+        <v>-0.0008098817373605805</v>
+      </c>
+      <c r="F97">
+        <v>0.002177898807465773</v>
+      </c>
+      <c r="G97">
+        <v>-0.01999722059187526</v>
+      </c>
+      <c r="H97">
+        <v>-0.007216111320995111</v>
+      </c>
+      <c r="I97">
+        <v>-0.00872051435848006</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.1052634246601304</v>
+        <v>0.1309449950386873</v>
       </c>
       <c r="C98">
-        <v>0.09174132031268527</v>
+        <v>-0.1400611653013054</v>
       </c>
       <c r="D98">
-        <v>-0.115798512835712</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01486008187146646</v>
+      </c>
+      <c r="E98">
+        <v>0.1401374470714433</v>
+      </c>
+      <c r="F98">
+        <v>0.2501362179095561</v>
+      </c>
+      <c r="G98">
+        <v>0.07814251802730539</v>
+      </c>
+      <c r="H98">
+        <v>-0.2495254353959627</v>
+      </c>
+      <c r="I98">
+        <v>0.3313569280796804</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3562,25 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3591,83 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.005801996466408978</v>
+        <v>0.006245982694497398</v>
       </c>
       <c r="C101">
-        <v>0.0269132610248239</v>
+        <v>-0.05565560140601886</v>
       </c>
       <c r="D101">
-        <v>-0.06885922161902822</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02964869493313878</v>
+      </c>
+      <c r="E101">
+        <v>0.1099147372601796</v>
+      </c>
+      <c r="F101">
+        <v>-0.02052595075848539</v>
+      </c>
+      <c r="G101">
+        <v>0.04748917488457985</v>
+      </c>
+      <c r="H101">
+        <v>-0.1073710827964339</v>
+      </c>
+      <c r="I101">
+        <v>-0.1793223260016373</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.06396840753964615</v>
+        <v>0.02416634995891506</v>
       </c>
       <c r="C102">
-        <v>0.1220592379508054</v>
+        <v>-0.0857848742103645</v>
       </c>
       <c r="D102">
-        <v>-0.004457481960573956</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04228249451017652</v>
+      </c>
+      <c r="E102">
+        <v>-0.04927512111292404</v>
+      </c>
+      <c r="F102">
+        <v>0.0355812989606674</v>
+      </c>
+      <c r="G102">
+        <v>0.01239735443626984</v>
+      </c>
+      <c r="H102">
+        <v>0.07066421384837661</v>
+      </c>
+      <c r="I102">
+        <v>-0.01866588106057592</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
